--- a/outputs/descriptives/07_descriptives_mediation_upper_high_zscores.xlsx
+++ b/outputs/descriptives/07_descriptives_mediation_upper_high_zscores.xlsx
@@ -667,34 +667,34 @@
         <v>59</v>
       </c>
       <c r="C7">
-        <v>-1.822966507032322E-16</v>
+        <v>2.586722620470331E-16</v>
       </c>
       <c r="D7">
         <v>1</v>
       </c>
       <c r="E7">
-        <v>0.01081835149096406</v>
+        <v>0.03131005291631736</v>
       </c>
       <c r="F7">
-        <v>0.01009459485441027</v>
+        <v>0.0642407639858549</v>
       </c>
       <c r="G7">
-        <v>0.9021660554000733</v>
+        <v>0.8656360989468813</v>
       </c>
       <c r="H7">
-        <v>-2.235664592475353</v>
+        <v>-4.55680966207486</v>
       </c>
       <c r="I7">
-        <v>2.378794013162195</v>
+        <v>1.828855724378404</v>
       </c>
       <c r="J7">
-        <v>4.614458605637547</v>
+        <v>6.385665386453264</v>
       </c>
       <c r="K7">
-        <v>-0.04611152244727666</v>
+        <v>-1.508196264709633</v>
       </c>
       <c r="L7">
-        <v>-0.2100513136573166</v>
+        <v>5.34715592406272</v>
       </c>
       <c r="M7">
         <v>0.1301889109808239</v>
